--- a/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Teamplate_BaoCaoTongHopHoaHongNhanVien.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Teamplate_BaoCaoTongHopHoaHongNhanVien.xlsx
@@ -19,122 +19,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>Tổng cộng:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mã nhân viên
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(1)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Tên nhân viên
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(2)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Hoa hồng thực hiện
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(3)</t>
-    </r>
-  </si>
-  <si>
     <t>BÁO CÁO TỔNG HỢP HOA HỒNG THEO NHÂN VIÊN</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Hoa hồng thực hiện theo Y/cầu
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(4)</t>
-    </r>
+    <t>Mã nhân viên</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Hoa hồng tư vấn
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(5)</t>
-    </r>
+    <t>Tên nhân viên</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Hoa hồng bán gói dịch vụ
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(6)</t>
-    </r>
+    <t>Hoa hồng thực hiện</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Tổng
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(7= 3+4+5 + 6)</t>
-    </r>
+    <t>Hoa hồng tư vấn</t>
+  </si>
+  <si>
+    <t>Hoa hồng bán gói dịch vụ</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>Tổng cộng</t>
+  </si>
+  <si>
+    <t>Hoa hồng NV hỗ trợ</t>
   </si>
 </sst>
 </file>
@@ -210,7 +119,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -225,19 +134,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -262,7 +158,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -319,9 +215,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -636,7 +529,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +546,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -664,13 +557,13 @@
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
     </row>
     <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
@@ -695,16 +588,16 @@
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,9 +818,9 @@
     </row>
     <row r="30" spans="1:7" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="22"/>
+        <v>7</v>
+      </c>
+      <c r="B30" s="21"/>
       <c r="C30" s="10">
         <f>SUM(C$6:C29)</f>
         <v>0</v>

--- a/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Teamplate_BaoCaoTongHopHoaHongNhanVien.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoChietKhau/Teamplate_BaoCaoTongHopHoaHongNhanVien.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>BÁO CÁO TỔNG HỢP HOA HỒNG THEO NHÂN VIÊN</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Tổng</t>
-  </si>
-  <si>
-    <t>Tổng cộng</t>
   </si>
   <si>
     <t>Hoa hồng NV hỗ trợ</t>
@@ -100,7 +97,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,14 +109,8 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -142,23 +133,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -173,7 +153,6 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -182,9 +161,6 @@
     </xf>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -213,9 +189,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,17 +498,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="34" style="13" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="34" style="11" customWidth="1"/>
     <col min="3" max="3" width="20.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" style="5" customWidth="1"/>
@@ -545,64 +518,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
       <c r="H1" s="2"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-    </row>
-    <row r="3" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
-    </row>
-    <row r="4" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="1:8" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>8</v>
+      <c r="D5" s="8" t="s">
+        <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="8" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="9"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -610,8 +583,8 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -619,8 +592,8 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -628,8 +601,8 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="14"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -637,8 +610,8 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="14"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -646,8 +619,8 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="14"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -655,8 +628,8 @@
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -664,8 +637,8 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -673,8 +646,8 @@
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="14"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -682,8 +655,8 @@
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="14"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -691,8 +664,8 @@
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="14"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="12"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -700,8 +673,8 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -709,8 +682,8 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -718,8 +691,8 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -727,8 +700,8 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
-      <c r="B20" s="14"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -736,8 +709,8 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -745,8 +718,8 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="14"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -754,8 +727,8 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
-      <c r="B23" s="14"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -763,8 +736,8 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
@@ -772,8 +745,8 @@
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -781,8 +754,8 @@
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -790,8 +763,8 @@
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -799,8 +772,8 @@
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
@@ -808,44 +781,17 @@
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="21"/>
-      <c r="C30" s="10">
-        <f>SUM(C$6:C29)</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="10">
-        <f>SUM(D$6:D29)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="10">
-        <f>SUM(E$6:E29)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="10">
-        <f>SUM(F$6:F29)</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="10">
-        <f>SUM(G$6:G29)</f>
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A2:G2"/>
   </mergeCells>
   <pageMargins left="0.76" right="0.23" top="0.78" bottom="0.87" header="0.3" footer="0.7"/>
